--- a/script/8种数据类型/python8种数据类型.xlsx
+++ b/script/8种数据类型/python8种数据类型.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23240" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,38 +469,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,368 +773,364 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="44" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="31.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:9" ht="28.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" ht="112">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" ht="64">
+      <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9" ht="48">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:9" ht="80">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" ht="304">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" ht="64">
+      <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:9" ht="208">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" ht="32">
+      <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5" ht="32">
+      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
